--- a/Request_For_Proposal/catcare_Project_RFP.xlsx
+++ b/Request_For_Proposal/catcare_Project_RFP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\1차프로젝트\carecat\요구사항_정의서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A9D8A8-8074-4139-9E59-8D1FDAF87611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49890078-71BB-4FE7-BBE5-AB075A8D8D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="18345" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -751,6 +751,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1. 할일 페이지에서 수정버튼 클릭 시 '동의'와 '취소' 버튼 활성화
+2. 동의버튼 클릭 시 데이터 삭제
+3. 취소버튼 클릭 시 기존 데이터 출력
+4. 할일 페이지 안에서 페이지 이동없이 수행
+5. 해당 LIST 정보를 DB에서 소프트 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>DELETE01-REDIRECT01</t>
   </si>
   <si>
@@ -872,18 +880,12 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>1. 할일 페이지에서 수정버튼 클릭 시 '동의'와 '취소' 버튼 활성화
-2. 할일 페이지 안에서 페이지 이동없이 수행
-3. 해당 LIST 정보를 DB에서 소프트 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1108,7 +1110,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1244,13 +1246,34 @@
     <xf numFmtId="49" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1271,39 +1294,18 @@
     <xf numFmtId="49" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1313,8 +1315,11 @@
     <xf numFmtId="49" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1632,11 +1637,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="11.625" style="1" customWidth="1"/>
@@ -1650,7 +1655,7 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" s="3" customFormat="1">
+    <row r="3" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
@@ -1676,11 +1681,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="165">
-      <c r="B4" s="46" t="s">
+    <row r="4" spans="2:9" ht="165" x14ac:dyDescent="0.3">
+      <c r="B4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="61" t="s">
         <v>61</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -1693,16 +1698,16 @@
         <v>117</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>64</v>
       </c>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="2:9" ht="82.5">
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
+    <row r="5" spans="2:9" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
       <c r="D5" s="22" t="s">
         <v>62</v>
       </c>
@@ -1713,16 +1718,16 @@
         <v>91</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>65</v>
       </c>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="99">
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
+    <row r="6" spans="2:9" ht="99" x14ac:dyDescent="0.3">
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
       <c r="D6" s="5" t="s">
         <v>102</v>
       </c>
@@ -1740,9 +1745,9 @@
       </c>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" ht="99">
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
+    <row r="7" spans="2:9" ht="132" x14ac:dyDescent="0.3">
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
       <c r="D7" s="24" t="s">
         <v>103</v>
       </c>
@@ -1753,7 +1758,7 @@
         <v>93</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>94</v>
@@ -1762,9 +1767,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="33">
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
+    <row r="8" spans="2:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
       <c r="D8" s="24" t="s">
         <v>101</v>
       </c>
@@ -1772,7 +1777,7 @@
         <v>85</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>116</v>
@@ -1780,9 +1785,9 @@
       <c r="H8" s="6"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="2:9" ht="33">
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
+    <row r="9" spans="2:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
       <c r="D9" s="24" t="s">
         <v>100</v>
       </c>
@@ -1790,7 +1795,7 @@
         <v>85</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>112</v>
@@ -1798,29 +1803,29 @@
       <c r="H9" s="6"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="2:9" ht="49.5">
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
+    <row r="10" spans="2:9" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
       <c r="D10" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>85</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="2:9" ht="66">
-      <c r="B11" s="54" t="s">
+    <row r="11" spans="2:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="B11" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="63" t="s">
         <v>67</v>
       </c>
       <c r="D11" s="9" t="s">
@@ -1840,9 +1845,9 @@
       </c>
       <c r="I11" s="9"/>
     </row>
-    <row r="12" spans="2:9" ht="33">
-      <c r="B12" s="55"/>
-      <c r="C12" s="55"/>
+    <row r="12" spans="2:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
       <c r="D12" s="11" t="s">
         <v>71</v>
       </c>
@@ -1858,7 +1863,7 @@
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
     </row>
-    <row r="13" spans="2:9" ht="132">
+    <row r="13" spans="2:9" ht="132" x14ac:dyDescent="0.3">
       <c r="B13" s="65" t="s">
         <v>52</v>
       </c>
@@ -1882,7 +1887,7 @@
       </c>
       <c r="I13" s="13"/>
     </row>
-    <row r="14" spans="2:9" ht="33">
+    <row r="14" spans="2:9" ht="33" x14ac:dyDescent="0.3">
       <c r="B14" s="66"/>
       <c r="C14" s="66"/>
       <c r="D14" s="13" t="s">
@@ -1902,7 +1907,7 @@
       </c>
       <c r="I14" s="13"/>
     </row>
-    <row r="15" spans="2:9" ht="66">
+    <row r="15" spans="2:9" ht="66" x14ac:dyDescent="0.3">
       <c r="B15" s="66"/>
       <c r="C15" s="66"/>
       <c r="D15" s="13" t="s">
@@ -1920,29 +1925,29 @@
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
     </row>
-    <row r="16" spans="2:9">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="67"/>
       <c r="C16" s="67"/>
       <c r="D16" s="13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>85</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
     </row>
-    <row r="17" spans="2:9" ht="181.5">
-      <c r="B17" s="62" t="s">
+    <row r="17" spans="2:9" ht="181.5" x14ac:dyDescent="0.3">
+      <c r="B17" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="62" t="s">
+      <c r="C17" s="48" t="s">
         <v>60</v>
       </c>
       <c r="D17" s="19" t="s">
@@ -1955,16 +1960,16 @@
         <v>59</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H17" s="21" t="s">
         <v>114</v>
       </c>
       <c r="I17" s="19"/>
     </row>
-    <row r="18" spans="2:9" ht="33">
-      <c r="B18" s="63"/>
-      <c r="C18" s="63"/>
+    <row r="18" spans="2:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
       <c r="D18" s="19" t="s">
         <v>106</v>
       </c>
@@ -1980,9 +1985,9 @@
       <c r="H18" s="21"/>
       <c r="I18" s="19"/>
     </row>
-    <row r="19" spans="2:9" ht="66">
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
+    <row r="19" spans="2:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
       <c r="D19" s="19" t="s">
         <v>107</v>
       </c>
@@ -1998,65 +2003,65 @@
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
     </row>
-    <row r="20" spans="2:9" ht="49.5">
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
+    <row r="20" spans="2:9" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
       <c r="D20" s="19" t="s">
         <v>108</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="G20" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="F20" s="69" t="s">
         <v>129</v>
+      </c>
+      <c r="G20" s="69" t="s">
+        <v>130</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
     </row>
-    <row r="21" spans="2:9" ht="99">
-      <c r="B21" s="64"/>
-      <c r="C21" s="64"/>
+    <row r="21" spans="2:9" ht="99" x14ac:dyDescent="0.3">
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
       <c r="D21" s="19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E21" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="F21" s="21" t="s">
+      <c r="F21" s="69" t="s">
         <v>113</v>
       </c>
-      <c r="G21" s="21" t="s">
-        <v>125</v>
+      <c r="G21" s="69" t="s">
+        <v>126</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
     </row>
-    <row r="22" spans="2:9" ht="33">
-      <c r="B22" s="68"/>
-      <c r="C22" s="68"/>
+    <row r="22" spans="2:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
       <c r="D22" s="19" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E22" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="F22" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="G22" s="69" t="s">
         <v>135</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="G22" s="21" t="s">
-        <v>134</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
     </row>
-    <row r="23" spans="2:9" ht="33">
-      <c r="B23" s="45" t="s">
+    <row r="23" spans="2:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="B23" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="45" t="s">
+      <c r="C23" s="68" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="16" t="s">
@@ -2074,9 +2079,9 @@
       <c r="H23" s="18"/>
       <c r="I23" s="16"/>
     </row>
-    <row r="24" spans="2:9" ht="148.5">
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
+    <row r="24" spans="2:9" ht="148.5" x14ac:dyDescent="0.3">
+      <c r="B24" s="68"/>
+      <c r="C24" s="68"/>
       <c r="D24" s="16" t="s">
         <v>32</v>
       </c>
@@ -2092,11 +2097,11 @@
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
     </row>
-    <row r="25" spans="2:9" ht="49.5">
-      <c r="B25" s="48" t="s">
+    <row r="25" spans="2:9" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B25" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="48" t="s">
+      <c r="C25" s="55" t="s">
         <v>11</v>
       </c>
       <c r="D25" s="42" t="s">
@@ -2116,19 +2121,19 @@
       </c>
       <c r="I25" s="42"/>
     </row>
-    <row r="26" spans="2:9" ht="99" customHeight="1">
-      <c r="B26" s="49"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="48" t="s">
+    <row r="26" spans="2:9" ht="99" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="56"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="48" t="s">
+      <c r="E26" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="F26" s="48" t="s">
+      <c r="F26" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="G26" s="51" t="s">
+      <c r="G26" s="58" t="s">
         <v>76</v>
       </c>
       <c r="H26" s="44" t="s">
@@ -2136,31 +2141,31 @@
       </c>
       <c r="I26" s="42"/>
     </row>
-    <row r="27" spans="2:9">
-      <c r="B27" s="49"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="52"/>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B27" s="56"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="59"/>
       <c r="H27" s="42"/>
       <c r="I27" s="42"/>
     </row>
-    <row r="28" spans="2:9">
-      <c r="B28" s="50"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="53"/>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="57"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="60"/>
       <c r="H28" s="42"/>
       <c r="I28" s="42"/>
     </row>
-    <row r="29" spans="2:9" ht="82.5">
-      <c r="B29" s="57" t="s">
+    <row r="29" spans="2:9" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="B29" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="57" t="s">
+      <c r="C29" s="52" t="s">
         <v>20</v>
       </c>
       <c r="D29" s="36" t="s">
@@ -2180,9 +2185,9 @@
       </c>
       <c r="I29" s="36"/>
     </row>
-    <row r="30" spans="2:9" ht="115.5">
-      <c r="B30" s="58"/>
-      <c r="C30" s="58"/>
+    <row r="30" spans="2:9" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="B30" s="53"/>
+      <c r="C30" s="53"/>
       <c r="D30" s="36" t="s">
         <v>21</v>
       </c>
@@ -2200,9 +2205,9 @@
       </c>
       <c r="I30" s="36"/>
     </row>
-    <row r="31" spans="2:9" ht="49.5">
-      <c r="B31" s="59"/>
-      <c r="C31" s="59"/>
+    <row r="31" spans="2:9" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B31" s="54"/>
+      <c r="C31" s="54"/>
       <c r="D31" s="36" t="s">
         <v>23</v>
       </c>
@@ -2218,11 +2223,11 @@
       <c r="H31" s="38"/>
       <c r="I31" s="36"/>
     </row>
-    <row r="32" spans="2:9" ht="99">
-      <c r="B32" s="56" t="s">
+    <row r="32" spans="2:9" ht="99" x14ac:dyDescent="0.3">
+      <c r="B32" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="56" t="s">
+      <c r="C32" s="51" t="s">
         <v>16</v>
       </c>
       <c r="D32" s="39" t="s">
@@ -2242,9 +2247,9 @@
       </c>
       <c r="I32" s="39"/>
     </row>
-    <row r="33" spans="2:9" ht="82.5">
-      <c r="B33" s="56"/>
-      <c r="C33" s="56"/>
+    <row r="33" spans="2:9" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="B33" s="51"/>
+      <c r="C33" s="51"/>
       <c r="D33" s="39" t="s">
         <v>26</v>
       </c>
@@ -2260,9 +2265,9 @@
       <c r="H33" s="39"/>
       <c r="I33" s="39"/>
     </row>
-    <row r="34" spans="2:9" ht="49.5">
-      <c r="B34" s="56"/>
-      <c r="C34" s="56"/>
+    <row r="34" spans="2:9" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B34" s="51"/>
+      <c r="C34" s="51"/>
       <c r="D34" s="39" t="s">
         <v>28</v>
       </c>
@@ -2278,11 +2283,11 @@
       <c r="H34" s="39"/>
       <c r="I34" s="39"/>
     </row>
-    <row r="35" spans="2:9" ht="82.5">
-      <c r="B35" s="60" t="s">
+    <row r="35" spans="2:9" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="B35" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="60" t="s">
+      <c r="C35" s="46" t="s">
         <v>35</v>
       </c>
       <c r="D35" s="25" t="s">
@@ -2302,9 +2307,9 @@
       </c>
       <c r="I35" s="28"/>
     </row>
-    <row r="36" spans="2:9" ht="99">
-      <c r="B36" s="60"/>
-      <c r="C36" s="60"/>
+    <row r="36" spans="2:9" ht="99" x14ac:dyDescent="0.3">
+      <c r="B36" s="46"/>
+      <c r="C36" s="46"/>
       <c r="D36" s="25" t="s">
         <v>37</v>
       </c>
@@ -2320,11 +2325,11 @@
       <c r="H36" s="25"/>
       <c r="I36" s="28"/>
     </row>
-    <row r="37" spans="2:9" ht="99">
-      <c r="B37" s="61" t="s">
+    <row r="37" spans="2:9" ht="99" x14ac:dyDescent="0.3">
+      <c r="B37" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="C37" s="61" t="s">
+      <c r="C37" s="47" t="s">
         <v>53</v>
       </c>
       <c r="D37" s="29" t="s">
@@ -2344,9 +2349,9 @@
       </c>
       <c r="I37" s="32"/>
     </row>
-    <row r="38" spans="2:9" ht="66">
-      <c r="B38" s="61"/>
-      <c r="C38" s="61"/>
+    <row r="38" spans="2:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="B38" s="47"/>
+      <c r="C38" s="47"/>
       <c r="D38" s="29" t="s">
         <v>48</v>
       </c>
@@ -2364,6 +2369,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="C4:C10"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="E26:E28"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="C35:C36"/>
     <mergeCell ref="B37:B38"/>
@@ -2376,18 +2393,6 @@
     <mergeCell ref="B29:B31"/>
     <mergeCell ref="C25:C28"/>
     <mergeCell ref="B25:B28"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="C4:C10"/>
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="E26:E28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Request_For_Proposal/catcare_Project_RFP.xlsx
+++ b/Request_For_Proposal/catcare_Project_RFP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\carecat\Request_For_Proposal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49890078-71BB-4FE7-BBE5-AB075A8D8D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095939D4-0AF8-485A-B018-904FB436D853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="18345" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -563,10 +563,6 @@
       </rPr>
       <t xml:space="preserve"> &gt; 시작버튼</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름, 성별 ,생년월일, 몸무게</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -720,13 +716,6 @@
   </si>
   <si>
     <t xml:space="preserve">
-1. 반려묘 사진
-2. 반려묘 이름, 성별 ,생년월일, 몸무게
-3. 완료된 체크를 백분율해서 표시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
 1. 가입페이지에서 선택한 동물의 사진을 5개 출력
 2. 고객이 입력하는 폼 출력
 3. 전송버튼
@@ -812,18 +801,6 @@
   </si>
   <si>
     <t>메인 타이틀 클릭시 시작페이지로 이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1. 선택한 고양이 사진 출력
-2. 행복지수 출력
-3. 반려묘 정보(이름, 성별, 생년월일, 몸무게) 출력
-4. 생일 디데이 출력
-5. 상단에 '집사 반가워' 문구 출력
-6. 내정보 수정버튼 출력
-7. 반려동물 추가 버튼 출력
-8. 추가 반려동물 있을때 슬라이딩으로 확인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -878,6 +855,29 @@
 5. 할일 목록 체크 되었을때 회색글씨로 출력
 </t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. 선택한 고양이 사진 출력
+2. 행복지수 출력
+3. 반려묘 정보(이름, 성별, 생년월일, 몸무게, 입양일자) 출력
+4. 생일 디데이 출력
+5. 상단에 '집사 반가워' 문구 출력
+6. 내정보 수정버튼 출력
+7. 반려동물 추가 버튼 출력
+8. 추가 반려동물 있을때 슬라이딩으로 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. 반려묘 사진
+2. 반려묘 이름, 성별 ,생년월일, 몸무게, 입양일자
+3. 완료된 체크를 백분율해서 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름, 성별 ,생년월일, 몸무게, 입양일자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1249,32 +1249,8 @@
     <xf numFmtId="49" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="7" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1318,8 +1294,32 @@
     <xf numFmtId="49" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="7" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1637,8 +1637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1682,10 +1682,10 @@
       </c>
     </row>
     <row r="4" spans="2:9" ht="165" x14ac:dyDescent="0.3">
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="53" t="s">
         <v>61</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -1695,10 +1695,10 @@
         <v>85</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>64</v>
@@ -1706,8 +1706,8 @@
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="2:9" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
       <c r="D5" s="22" t="s">
         <v>62</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>91</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>65</v>
@@ -1726,10 +1726,10 @@
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="2:9" ht="99" x14ac:dyDescent="0.3">
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
       <c r="D6" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>85</v>
@@ -1738,7 +1738,7 @@
         <v>92</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>94</v>
@@ -1746,10 +1746,10 @@
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="2:9" ht="132" x14ac:dyDescent="0.3">
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
       <c r="D7" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>85</v>
@@ -1758,7 +1758,7 @@
         <v>93</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>94</v>
@@ -1768,64 +1768,64 @@
       </c>
     </row>
     <row r="8" spans="2:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
       <c r="D8" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>85</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="2:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
       <c r="D9" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>85</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="4"/>
     </row>
     <row r="10" spans="2:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
       <c r="D10" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>85</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="4"/>
     </row>
     <row r="11" spans="2:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="B11" s="63" t="s">
+      <c r="B11" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="63" t="s">
+      <c r="C11" s="55" t="s">
         <v>67</v>
       </c>
       <c r="D11" s="9" t="s">
@@ -1846,8 +1846,8 @@
       <c r="I11" s="9"/>
     </row>
     <row r="12" spans="2:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
       <c r="D12" s="11" t="s">
         <v>71</v>
       </c>
@@ -1864,10 +1864,10 @@
       <c r="I12" s="9"/>
     </row>
     <row r="13" spans="2:9" ht="132" x14ac:dyDescent="0.3">
-      <c r="B13" s="65" t="s">
+      <c r="B13" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="65" t="s">
+      <c r="C13" s="57" t="s">
         <v>86</v>
       </c>
       <c r="D13" s="13" t="s">
@@ -1880,16 +1880,16 @@
         <v>97</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="I13" s="13"/>
     </row>
     <row r="14" spans="2:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="B14" s="66"/>
-      <c r="C14" s="66"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
       <c r="D14" s="13" t="s">
         <v>54</v>
       </c>
@@ -1908,8 +1908,8 @@
       <c r="I14" s="13"/>
     </row>
     <row r="15" spans="2:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="B15" s="66"/>
-      <c r="C15" s="66"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
       <c r="D15" s="13" t="s">
         <v>28</v>
       </c>
@@ -1917,7 +1917,7 @@
         <v>85</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G15" s="14" t="s">
         <v>83</v>
@@ -1926,28 +1926,28 @@
       <c r="I15" s="13"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="67"/>
-      <c r="C16" s="67"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
       <c r="D16" s="13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>85</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
     </row>
     <row r="17" spans="2:9" ht="181.5" x14ac:dyDescent="0.3">
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="48" t="s">
+      <c r="C17" s="63" t="s">
         <v>60</v>
       </c>
       <c r="D17" s="19" t="s">
@@ -1960,81 +1960,81 @@
         <v>59</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="I17" s="19"/>
     </row>
     <row r="18" spans="2:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
       <c r="D18" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E18" s="20" t="s">
         <v>85</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H18" s="21"/>
       <c r="I18" s="19"/>
     </row>
     <row r="19" spans="2:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
       <c r="D19" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E19" s="20" t="s">
         <v>85</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
     </row>
     <row r="20" spans="2:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
       <c r="D20" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="F20" s="69" t="s">
-        <v>129</v>
-      </c>
-      <c r="G20" s="69" t="s">
-        <v>130</v>
+        <v>133</v>
+      </c>
+      <c r="F20" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="G20" s="46" t="s">
+        <v>128</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
     </row>
     <row r="21" spans="2:9" ht="99" x14ac:dyDescent="0.3">
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
       <c r="D21" s="19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E21" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="F21" s="69" t="s">
-        <v>113</v>
-      </c>
-      <c r="G21" s="69" t="s">
-        <v>126</v>
+      <c r="F21" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="G21" s="46" t="s">
+        <v>124</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -2043,25 +2043,25 @@
       <c r="B22" s="45"/>
       <c r="C22" s="45"/>
       <c r="D22" s="19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="F22" s="69" t="s">
-        <v>134</v>
-      </c>
-      <c r="G22" s="69" t="s">
-        <v>135</v>
+        <v>133</v>
+      </c>
+      <c r="F22" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="G22" s="46" t="s">
+        <v>132</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
     </row>
     <row r="23" spans="2:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="B23" s="68" t="s">
+      <c r="B23" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="68" t="s">
+      <c r="C23" s="60" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="16" t="s">
@@ -2080,8 +2080,8 @@
       <c r="I23" s="16"/>
     </row>
     <row r="24" spans="2:9" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="B24" s="68"/>
-      <c r="C24" s="68"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="60"/>
       <c r="D24" s="16" t="s">
         <v>32</v>
       </c>
@@ -2089,19 +2089,19 @@
         <v>85</v>
       </c>
       <c r="F24" s="35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G24" s="35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
     </row>
     <row r="25" spans="2:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B25" s="55" t="s">
+      <c r="B25" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="55" t="s">
+      <c r="C25" s="47" t="s">
         <v>11</v>
       </c>
       <c r="D25" s="42" t="s">
@@ -2122,18 +2122,18 @@
       <c r="I25" s="42"/>
     </row>
     <row r="26" spans="2:9" ht="99" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="56"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="55" t="s">
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="55" t="s">
+      <c r="E26" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="F26" s="55" t="s">
+      <c r="F26" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="G26" s="58" t="s">
+      <c r="G26" s="50" t="s">
         <v>76</v>
       </c>
       <c r="H26" s="44" t="s">
@@ -2142,30 +2142,30 @@
       <c r="I26" s="42"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="59"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="51"/>
       <c r="H27" s="42"/>
       <c r="I27" s="42"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="57"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="60"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="52"/>
       <c r="H28" s="42"/>
       <c r="I28" s="42"/>
     </row>
     <row r="29" spans="2:9" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B29" s="52" t="s">
+      <c r="B29" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="52" t="s">
+      <c r="C29" s="67" t="s">
         <v>20</v>
       </c>
       <c r="D29" s="36" t="s">
@@ -2186,8 +2186,8 @@
       <c r="I29" s="36"/>
     </row>
     <row r="30" spans="2:9" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="B30" s="53"/>
-      <c r="C30" s="53"/>
+      <c r="B30" s="68"/>
+      <c r="C30" s="68"/>
       <c r="D30" s="36" t="s">
         <v>21</v>
       </c>
@@ -2206,8 +2206,8 @@
       <c r="I30" s="36"/>
     </row>
     <row r="31" spans="2:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B31" s="54"/>
-      <c r="C31" s="54"/>
+      <c r="B31" s="69"/>
+      <c r="C31" s="69"/>
       <c r="D31" s="36" t="s">
         <v>23</v>
       </c>
@@ -2224,10 +2224,10 @@
       <c r="I31" s="36"/>
     </row>
     <row r="32" spans="2:9" ht="99" x14ac:dyDescent="0.3">
-      <c r="B32" s="51" t="s">
+      <c r="B32" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="51" t="s">
+      <c r="C32" s="66" t="s">
         <v>16</v>
       </c>
       <c r="D32" s="39" t="s">
@@ -2248,8 +2248,8 @@
       <c r="I32" s="39"/>
     </row>
     <row r="33" spans="2:9" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B33" s="51"/>
-      <c r="C33" s="51"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="66"/>
       <c r="D33" s="39" t="s">
         <v>26</v>
       </c>
@@ -2266,8 +2266,8 @@
       <c r="I33" s="39"/>
     </row>
     <row r="34" spans="2:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B34" s="51"/>
-      <c r="C34" s="51"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="66"/>
       <c r="D34" s="39" t="s">
         <v>28</v>
       </c>
@@ -2284,10 +2284,10 @@
       <c r="I34" s="39"/>
     </row>
     <row r="35" spans="2:9" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B35" s="46" t="s">
+      <c r="B35" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="46" t="s">
+      <c r="C35" s="61" t="s">
         <v>35</v>
       </c>
       <c r="D35" s="25" t="s">
@@ -2308,8 +2308,8 @@
       <c r="I35" s="28"/>
     </row>
     <row r="36" spans="2:9" ht="99" x14ac:dyDescent="0.3">
-      <c r="B36" s="46"/>
-      <c r="C36" s="46"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="61"/>
       <c r="D36" s="25" t="s">
         <v>37</v>
       </c>
@@ -2326,10 +2326,10 @@
       <c r="I36" s="28"/>
     </row>
     <row r="37" spans="2:9" ht="99" x14ac:dyDescent="0.3">
-      <c r="B37" s="47" t="s">
+      <c r="B37" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="C37" s="47" t="s">
+      <c r="C37" s="62" t="s">
         <v>53</v>
       </c>
       <c r="D37" s="29" t="s">
@@ -2350,8 +2350,8 @@
       <c r="I37" s="32"/>
     </row>
     <row r="38" spans="2:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="B38" s="47"/>
-      <c r="C38" s="47"/>
+      <c r="B38" s="62"/>
+      <c r="C38" s="62"/>
       <c r="D38" s="29" t="s">
         <v>48</v>
       </c>
@@ -2369,6 +2369,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="B25:B28"/>
     <mergeCell ref="F26:F28"/>
     <mergeCell ref="G26:G28"/>
     <mergeCell ref="C4:C10"/>
@@ -2381,18 +2393,6 @@
     <mergeCell ref="C23:C24"/>
     <mergeCell ref="D26:D28"/>
     <mergeCell ref="E26:E28"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="B25:B28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
